--- a/biology/Botanique/Tiefurt/Tiefurt.xlsx
+++ b/biology/Botanique/Tiefurt/Tiefurt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tiefurt est un bourg proche de Weimar[1], situé à environ cinq kilomètres du centre ville vers l'ouest, où se trouve un manoir campagnard, le château de Tiefurt baigné par la rivière Ilm. C'était la résidence d'été de la duchesse Anne-Amélie de Saxe-Weimar-Eisenach.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tiefurt est un bourg proche de Weimar, situé à environ cinq kilomètres du centre ville vers l'ouest, où se trouve un manoir campagnard, le château de Tiefurt baigné par la rivière Ilm. C'était la résidence d'été de la duchesse Anne-Amélie de Saxe-Weimar-Eisenach.
 Ce lieu est célèbre depuis Goethe dans l'histoire du romantisme allemand et fait partie de la route du classicisme de Weimar, protégée par l'UNESCO depuis 1998.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Château de Tiefurt</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit château se trouve à l'emplacement de l'ancienne maison du vacher du domaine de Tiefurt, celui-ci appartenant à la Maison de Saxe-Weimar-Eisenach. Érigé au XVIe siècle, le bâtiment est reconstruit en 1765 et agrandi de façon significative. L'étage comprend sept salles. Une petite aile est construite à côté reliée au corps de bâtiment principal par une galerie.
 Charles-Auguste de Saxe-Weimar-Eisenach en fait don à son jeune frère Constantin qui y reçoit ses leçons du précepteur de la cour, Karl Ludwig von Knebel à partir de 1776. Leur mère, la duchesse Anne-Amélie, en fait sa résidence d'été quatre ans plus tard, tandis que sa dame d'honneur, Luise von Göchhausen (1752-1807), demeure dans le petit bâtiment de côté. Le château devient pendant vingt-cinq ans l'un des lieux préférés du cercle des poètes de Weimar.
